--- a/Projeto ETL com Python com IA Generativa/BD_ETL_Santander2023.xlsx
+++ b/Projeto ETL com Python com IA Generativa/BD_ETL_Santander2023.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isa_e\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE074E21-5553-49F2-BE4E-1A5CC08A4FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cadastro de Usuários" sheetId="1" r:id="rId1"/>
     <sheet name="Dados do Cartão" sheetId="2" r:id="rId2"/>
     <sheet name="Mensagens Enviadas" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
   <si>
     <t>ID</t>
   </si>
@@ -36,36 +42,36 @@
     <t>Ana Silva</t>
   </si>
   <si>
+    <t>Feminino</t>
+  </si>
+  <si>
+    <t>***.***.***-37</t>
+  </si>
+  <si>
     <t>João Costa</t>
   </si>
   <si>
+    <t>Masculino</t>
+  </si>
+  <si>
+    <t>***.***.***-85</t>
+  </si>
+  <si>
     <t>Maria Santos</t>
   </si>
   <si>
+    <t>***.***.***-34</t>
+  </si>
+  <si>
     <t>Lucas Ferreira</t>
   </si>
   <si>
+    <t>***.***.***-75</t>
+  </si>
+  <si>
     <t>Fernanda Oliveira</t>
   </si>
   <si>
-    <t>Feminino</t>
-  </si>
-  <si>
-    <t>Masculino</t>
-  </si>
-  <si>
-    <t>***.***.***-37</t>
-  </si>
-  <si>
-    <t>***.***.***-85</t>
-  </si>
-  <si>
-    <t>***.***.***-34</t>
-  </si>
-  <si>
-    <t>***.***.***-75</t>
-  </si>
-  <si>
     <t>***.***.***-14</t>
   </si>
   <si>
@@ -78,15 +84,27 @@
     <t>**** **** **** 3307</t>
   </si>
   <si>
+    <t>Visa</t>
+  </si>
+  <si>
     <t>**** **** **** 3151</t>
   </si>
   <si>
+    <t>Elo</t>
+  </si>
+  <si>
     <t>**** **** **** 5209</t>
   </si>
   <si>
+    <t>MasterCard</t>
+  </si>
+  <si>
     <t>**** **** **** 5916</t>
   </si>
   <si>
+    <t>Amex</t>
+  </si>
+  <si>
     <t>**** **** **** 5642</t>
   </si>
   <si>
@@ -96,29 +114,35 @@
     <t>**** **** **** 2733</t>
   </si>
   <si>
-    <t>Visa</t>
-  </si>
-  <si>
-    <t>Elo</t>
-  </si>
-  <si>
-    <t>MasterCard</t>
-  </si>
-  <si>
-    <t>Amex</t>
-  </si>
-  <si>
     <t>Data de envio do anúncio</t>
   </si>
   <si>
     <t>Anúncio</t>
+  </si>
+  <si>
+    <t>2023-08-18 13:53:39</t>
+  </si>
+  <si>
+    <t>Ana Silva, invista no futuro com nosso título de capitalização!</t>
+  </si>
+  <si>
+    <t>Oportunidade única para Lucas Ferreira,! Adquira já e sinta a diferença!</t>
+  </si>
+  <si>
+    <t>Fernanda Oliveira, faça o dinheiro trabalhar para você! Não perca esta chance!</t>
+  </si>
+  <si>
+    <t>Maria Santos, realize mais, invista conosco! Adquira já e sinta a diferença!</t>
+  </si>
+  <si>
+    <t>João Costa, sua chance de brilhar! Não perca esta chance!</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,10 +153,8 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -181,6 +203,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -468,14 +498,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -492,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -503,94 +537,94 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -601,7 +635,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -609,89 +643,96 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +743,62 @@
         <v>31</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>